--- a/业务数据统计模板.xlsx
+++ b/业务数据统计模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenchen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WasuProject\GitHub\DataStatistic\DataStatistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AA0CA7-3500-4C2A-BF71-FAFC68DACDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4072BE-6662-4EAE-BAD0-47BDBBB00296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     <t>总用户数</t>
   </si>
   <si>
-    <t>7月31日活跃用户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月活跃用户数（去重）</t>
   </si>
   <si>
@@ -60,10 +56,6 @@
     <t>华数眼总销量</t>
   </si>
   <si>
-    <t>近7日平均日活跃用户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宇视室内摄像头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +301,14 @@
   </si>
   <si>
     <t>温州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一日活跃用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近7日平均日活跃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,22 +507,19 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -805,7 +802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -819,27 +818,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -854,46 +853,46 @@
         <f t="shared" ref="E2:E28" si="0">(C2-D2)/D2</f>
         <v>3.3342673017652001E-2</v>
       </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1111</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3333</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2222</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4444</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5895</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5833</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0629178810217728E-2</v>
-      </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5889</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5748</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="0"/>
-        <v>2.4530271398747392E-2</v>
-      </c>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="C5" s="9">
         <v>12490</v>
@@ -905,14 +904,14 @@
         <f t="shared" si="0"/>
         <v>-0.28632649562882123</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
+      <c r="A6" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f>C7+C8+C9</f>
@@ -926,12 +925,12 @@
         <f t="shared" si="0"/>
         <v>5.7729109079311079E-2</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>21660</v>
@@ -943,12 +942,12 @@
         <f t="shared" si="0"/>
         <v>6.6207236032488306E-2</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
         <v>5206</v>
@@ -960,12 +959,12 @@
         <f t="shared" si="0"/>
         <v>6.3751532488761753E-2</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>12930</v>
@@ -977,31 +976,31 @@
         <f t="shared" si="0"/>
         <v>4.1482078131292788E-2</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.48130000000000001</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.45119999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6710992907801456E-2</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.48130000000000001</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.45119999999999999</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>6.6710992907801456E-2</v>
-      </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="4">
         <v>5168</v>
@@ -1013,12 +1012,12 @@
         <f t="shared" si="0"/>
         <v>3.7542662116040959E-2</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>544</v>
@@ -1030,12 +1029,12 @@
         <f t="shared" si="0"/>
         <v>4.8169556840077073E-2</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
         <v>4625</v>
@@ -1047,12 +1046,12 @@
         <f t="shared" si="0"/>
         <v>3.6530703720304793E-2</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
         <v>23798</v>
@@ -1064,14 +1063,14 @@
         <f t="shared" si="0"/>
         <v>4.8924541607898449E-2</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="13" t="s">
-        <v>21</v>
+      <c r="A15" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
         <v>1433</v>
@@ -1083,12 +1082,12 @@
         <f t="shared" si="0"/>
         <v>1.397624039133473E-3</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4">
         <v>2451</v>
@@ -1100,12 +1099,12 @@
         <f t="shared" si="0"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4">
         <v>2452</v>
@@ -1117,12 +1116,12 @@
         <f t="shared" si="0"/>
         <v>7.8092889436909164E-3</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4">
         <v>2453</v>
@@ -1134,12 +1133,12 @@
         <f t="shared" si="0"/>
         <v>7.8060805258833195E-3</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="15">
       <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4">
         <v>2454</v>
@@ -1151,12 +1150,12 @@
         <f t="shared" si="0"/>
         <v>7.8028747433264885E-3</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="15">
       <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <v>2455</v>
@@ -1168,14 +1167,14 @@
         <f t="shared" si="0"/>
         <v>7.7996715927750411E-3</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="14" t="s">
-        <v>28</v>
+      <c r="A21" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>2560</v>
@@ -1187,12 +1186,12 @@
         <f t="shared" si="0"/>
         <v>9.1219096334185845E-2</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>0.91110000000000002</v>
@@ -1204,12 +1203,12 @@
         <f t="shared" si="0"/>
         <v>-8.8808880888088804E-2</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="20"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4">
         <v>1963</v>
@@ -1221,12 +1220,12 @@
         <f t="shared" si="0"/>
         <v>5.0968399592252807E-4</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>0.3412</v>
@@ -1238,12 +1237,12 @@
         <f t="shared" si="0"/>
         <v>3.0193236714975872E-2</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="20"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>0.1963</v>
@@ -1255,14 +1254,14 @@
         <f t="shared" si="0"/>
         <v>-7.1428571428571438E-2</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="14" t="s">
-        <v>34</v>
+      <c r="A26" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4">
         <v>2761</v>
@@ -1274,12 +1273,12 @@
         <f t="shared" si="0"/>
         <v>0.43354101765316716</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="15">
-      <c r="A27" s="20"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4">
         <v>458</v>
@@ -1291,12 +1290,12 @@
         <f t="shared" si="0"/>
         <v>0.1834625322997416</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="20"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4">
         <v>27610</v>
@@ -1308,12 +1307,12 @@
         <f t="shared" si="0"/>
         <v>0.43354101765316716</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="20"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4">
         <v>501</v>
@@ -1325,72 +1324,72 @@
         <f>(C29-D29)/D29</f>
         <v>0.64262295081967213</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" ht="15">
-      <c r="A30" s="14" t="s">
-        <v>39</v>
+      <c r="A30" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4">
         <v>448</v>
       </c>
       <c r="D30" s="7">
-        <v>0.94599999999999995</v>
+        <v>0.115</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="17"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="20"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4">
         <v>88</v>
       </c>
       <c r="D31" s="7">
-        <v>0.184</v>
+        <v>0.124</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="20"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>2E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="15">
-      <c r="A33" s="20"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>45</v>
+      <c r="A34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="4">
         <v>189</v>
@@ -1399,15 +1398,15 @@
         <v>189</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E30:E49" si="1">(C34-D34)/D34</f>
+        <f t="shared" ref="E34:E49" si="1">(C34-D34)/D34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" ht="15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="16" t="s">
-        <v>46</v>
+      <c r="A35" s="16"/>
+      <c r="B35" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="4">
         <v>15999</v>
@@ -1419,12 +1418,12 @@
         <f t="shared" si="1"/>
         <v>0.27522716403634623</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="16" t="s">
-        <v>47</v>
+      <c r="A36" s="16"/>
+      <c r="B36" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="4">
         <f>C37+C38</f>
@@ -1438,12 +1437,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="16" t="s">
-        <v>48</v>
+      <c r="A37" s="16"/>
+      <c r="B37" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="4">
         <v>10709.28</v>
@@ -1455,12 +1454,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" ht="15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="16" t="s">
-        <v>49</v>
+      <c r="A38" s="16"/>
+      <c r="B38" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C38" s="4">
         <v>7782.37</v>
@@ -1472,12 +1471,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" ht="15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="16" t="s">
-        <v>50</v>
+      <c r="A39" s="16"/>
+      <c r="B39" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="4">
         <v>3812</v>
@@ -1489,14 +1488,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="17"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>51</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C40" s="4">
         <v>192</v>
@@ -1509,13 +1508,13 @@
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15">
       <c r="A41" s="18"/>
-      <c r="B41" s="16" t="s">
-        <v>52</v>
+      <c r="B41" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C41" s="4">
         <v>188</v>
@@ -1528,13 +1527,13 @@
         <v>9.3023255813953487E-2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15">
       <c r="A42" s="18"/>
-      <c r="B42" s="16" t="s">
-        <v>54</v>
+      <c r="B42" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C42" s="4">
         <v>184</v>
@@ -1547,13 +1546,13 @@
         <v>0.17948717948717949</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15">
       <c r="A43" s="18"/>
-      <c r="B43" s="16" t="s">
-        <v>55</v>
+      <c r="B43" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C43" s="4">
         <v>180</v>
@@ -1566,13 +1565,13 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="18"/>
-      <c r="B44" s="16" t="s">
-        <v>56</v>
+      <c r="B44" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="4">
         <v>176</v>
@@ -1585,13 +1584,13 @@
         <v>0.41935483870967744</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15">
       <c r="A45" s="18"/>
-      <c r="B45" s="16" t="s">
-        <v>57</v>
+      <c r="B45" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C45" s="4">
         <v>172</v>
@@ -1604,13 +1603,13 @@
         <v>0.59259259259259256</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15">
       <c r="A46" s="18"/>
-      <c r="B46" s="16" t="s">
-        <v>58</v>
+      <c r="B46" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C46" s="4">
         <v>168</v>
@@ -1623,13 +1622,13 @@
         <v>0.82608695652173914</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15">
       <c r="A47" s="18"/>
-      <c r="B47" s="16" t="s">
-        <v>59</v>
+      <c r="B47" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="4">
         <v>164</v>
@@ -1642,13 +1641,13 @@
         <v>1.1578947368421053</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15">
       <c r="A48" s="18"/>
-      <c r="B48" s="16" t="s">
-        <v>60</v>
+      <c r="B48" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C48" s="4">
         <v>160</v>
@@ -1661,13 +1660,13 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15">
       <c r="A49" s="19"/>
-      <c r="B49" s="16" t="s">
-        <v>61</v>
+      <c r="B49" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C49" s="4">
         <v>156</v>
@@ -1680,7 +1679,7 @@
         <v>2.5454545454545454</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/业务数据统计模板.xlsx
+++ b/业务数据统计模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WasuProject\GitHub\DataStatistic\DataStatistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4072BE-6662-4EAE-BAD0-47BDBBB00296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE32BB9-185E-47E4-B093-2BD1CF5F6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>总用户数</t>
   </si>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>近7日平均日活跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月活跃用户数（未去重）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,6 +524,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -800,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -837,7 +847,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -850,13 +860,13 @@
         <v>24983</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E28" si="0">(C2-D2)/D2</f>
+        <f t="shared" ref="E2:E29" si="0">(C2-D2)/D2</f>
         <v>3.3342673017652001E-2</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
@@ -873,7 +883,7 @@
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
@@ -890,7 +900,7 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
@@ -906,452 +916,455 @@
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="21"/>
+      <c r="B6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="9">
+        <v>13560</v>
+      </c>
+      <c r="D6" s="9">
+        <v>18560</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.26939655172413796</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <f>C7+C8+C9</f>
+      <c r="C7" s="1">
+        <f>C8+C9+C10</f>
         <v>39796</v>
       </c>
-      <c r="D6" s="1">
-        <f>D7+D8+D9</f>
+      <c r="D7" s="1">
+        <f>D8+D9+D10</f>
         <v>37624</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>5.7729109079311079E-2</v>
-      </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>21660</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20315</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>6.6207236032488306E-2</v>
       </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
-        <v>5206</v>
+        <v>21660</v>
       </c>
       <c r="D8" s="4">
-        <v>4894</v>
+        <v>20315</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>6.3751532488761753E-2</v>
+        <v>6.6207236032488306E-2</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>12930</v>
+        <v>5206</v>
       </c>
       <c r="D9" s="4">
-        <v>12415</v>
+        <v>4894</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>4.1482078131292788E-2</v>
+        <v>6.3751532488761753E-2</v>
       </c>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="15"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12930</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12415</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1482078131292788E-2</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C11" s="13">
         <v>0.48130000000000001</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <v>0.45119999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>6.6710992907801456E-2</v>
       </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="15" t="s">
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>5168</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="4">
         <v>4981</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>3.7542662116040959E-2</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <v>544</v>
-      </c>
-      <c r="D12" s="4">
-        <v>519</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>4.8169556840077073E-2</v>
       </c>
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4">
-        <v>4625</v>
+        <v>544</v>
       </c>
       <c r="D13" s="4">
-        <v>4462</v>
+        <v>519</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>3.6530703720304793E-2</v>
+        <v>4.8169556840077073E-2</v>
       </c>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4625</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4462</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>3.6530703720304793E-2</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>23798</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>22688</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>4.8924541607898449E-2</v>
       </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="17" t="s">
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>1433</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>1431</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>1.397624039133473E-3</v>
-      </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2451</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2432</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>7.8125E-3</v>
       </c>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D17" s="4">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>7.8092889436909164E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D18" s="4">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>7.8060805258833195E-3</v>
+        <v>7.8092889436909164E-3</v>
       </c>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="15">
       <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2453</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2434</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>7.8060805258833195E-3</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>2454</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>2435</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>7.8028747433264885E-3</v>
       </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="4" t="s">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>2455</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>2436</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>7.7996715927750411E-3</v>
       </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="15" t="s">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>2560</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>2346</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>9.1219096334185845E-2</v>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>-8.8808880888088804E-2</v>
       </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="15">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1963</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1962</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.99990000000000001</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>5.0968399592252807E-4</v>
+        <v>-8.8808880888088804E-2</v>
       </c>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="15">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.3412</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.33119999999999999</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1963</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1962</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>3.0193236714975872E-2</v>
+        <v>5.0968399592252807E-4</v>
       </c>
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="15">
       <c r="A25" s="16"/>
       <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.3412</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>3.0193236714975872E-2</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="7">
         <v>0.1963</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>0.2114</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>-7.1428571428571438E-2</v>
       </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="15" t="s">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>2761</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>1926</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>0.43354101765316716</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4">
-        <v>458</v>
-      </c>
-      <c r="D27" s="4">
-        <v>387</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1834625322997416</v>
       </c>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="15">
       <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4">
-        <v>27610</v>
+        <v>458</v>
       </c>
       <c r="D28" s="4">
-        <v>19260</v>
+        <v>387</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
-        <v>0.43354101765316716</v>
+        <v>0.1834625322997416</v>
       </c>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="15">
       <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4">
+        <v>27610</v>
+      </c>
+      <c r="D29" s="4">
+        <v>19260</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.43354101765316716</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <v>501</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="4">
         <v>305</v>
       </c>
-      <c r="E29" s="6">
-        <f>(C29-D29)/D29</f>
+      <c r="E30" s="6">
+        <f>(C30-D30)/D30</f>
         <v>0.64262295081967213</v>
       </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" ht="15">
-      <c r="A30" s="15" t="s">
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>448</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>0.115</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="4">
-        <v>88</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.124</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="14"/>
@@ -1359,13 +1372,13 @@
     <row r="32" spans="1:6" ht="15">
       <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D32" s="7">
-        <v>1.2E-2</v>
+        <v>0.124</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="14"/>
@@ -1373,82 +1386,79 @@
     <row r="33" spans="1:6" ht="15">
       <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="15">
+      <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
         <v>189</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="4">
         <v>189</v>
       </c>
-      <c r="E34" s="6">
-        <f t="shared" ref="E34:E49" si="1">(C34-D34)/D34</f>
+      <c r="E35" s="6">
+        <f t="shared" ref="E35:E50" si="1">(C35-D35)/D35</f>
         <v>0</v>
-      </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="4">
-        <v>15999</v>
-      </c>
-      <c r="D35" s="4">
-        <v>12546</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="1"/>
-        <v>0.27522716403634623</v>
       </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="15">
       <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="4">
-        <f>C37+C38</f>
-        <v>18491.650000000001</v>
+        <v>15999</v>
       </c>
       <c r="D36" s="4">
-        <f>D37+D38</f>
-        <v>18491.650000000001</v>
+        <v>12546</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.27522716403634623</v>
       </c>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="15">
       <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4">
-        <v>10709.28</v>
+        <f>C38+C39</f>
+        <v>18491.650000000001</v>
       </c>
       <c r="D37" s="4">
-        <v>10709.28</v>
+        <f>D38+D39</f>
+        <v>18491.650000000001</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="1"/>
@@ -1459,13 +1469,13 @@
     <row r="38" spans="1:6" ht="15">
       <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4">
-        <v>7782.37</v>
+        <v>10709.28</v>
       </c>
       <c r="D38" s="4">
-        <v>7782.37</v>
+        <v>10709.28</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="1"/>
@@ -1476,13 +1486,13 @@
     <row r="39" spans="1:6" ht="15">
       <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4">
-        <v>3812</v>
+        <v>7782.37</v>
       </c>
       <c r="D39" s="4">
-        <v>3812</v>
+        <v>7782.37</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="1"/>
@@ -1491,208 +1501,225 @@
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4">
-        <v>192</v>
+        <v>3812</v>
       </c>
       <c r="D40" s="4">
-        <v>188</v>
+        <v>3812</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="1"/>
-        <v>2.1276595744680851E-2</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="15">
-      <c r="A41" s="18"/>
+      <c r="A41" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4">
+        <v>192</v>
+      </c>
+      <c r="D41" s="4">
         <v>188</v>
-      </c>
-      <c r="D41" s="4">
-        <v>172</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="1"/>
-        <v>9.3023255813953487E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15">
       <c r="A42" s="18"/>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D42" s="4">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="1"/>
-        <v>0.17948717948717949</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15">
       <c r="A43" s="18"/>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D43" s="4">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="18"/>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="4">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" si="1"/>
-        <v>0.41935483870967744</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15">
       <c r="A45" s="18"/>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="4">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D45" s="4">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" si="1"/>
-        <v>0.59259259259259256</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15">
       <c r="A46" s="18"/>
       <c r="B46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D46" s="4">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" si="1"/>
-        <v>0.82608695652173914</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15">
       <c r="A47" s="18"/>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="4">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D47" s="4">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" si="1"/>
-        <v>1.1578947368421053</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15">
       <c r="A48" s="18"/>
       <c r="B48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D48" s="4">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>1.1578947368421053</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15">
-      <c r="A49" s="19"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D49" s="4">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="4">
+        <v>156</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="1"/>
         <v>2.5454545454545454</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/业务数据统计模板.xlsx
+++ b/业务数据统计模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WasuProject\GitHub\DataStatistic\DataStatistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE35482-5B28-4233-B40B-8D22DD3918EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A0E7DA-1BC3-41D5-8C1F-8771C49B5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,62 +471,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -843,7 +843,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -851,20 +851,19 @@
       </c>
       <c r="C2" s="7">
         <f>C3+C6+C7</f>
-        <v>50832</v>
+        <v>50770</v>
       </c>
       <c r="D2" s="7">
-        <f>D3+D6+D7</f>
-        <v>42478</v>
-      </c>
-      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="e">
         <f t="shared" ref="E2:E35" si="0">(C2-D2)/D2</f>
-        <v>0.19666650972267999</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="16.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,7 +880,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="16.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -898,12 +897,12 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="16.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>9342</v>
+        <v>12602</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -915,7 +914,7 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="16.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -932,12 +931,12 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="16.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>6899</v>
+        <v>6837</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -949,44 +948,44 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16">
-        <v>7494</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="9">
+        <v>8006</v>
+      </c>
+      <c r="D8" s="9">
         <v>7430</v>
       </c>
-      <c r="E8" s="17">
-        <f t="shared" si="0"/>
-        <v>8.6137281292059213E-3</v>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>7.7523553162853295E-2</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16">
-        <v>7554</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="C9" s="18">
+        <v>8051</v>
+      </c>
+      <c r="D9" s="9">
         <v>7294</v>
       </c>
-      <c r="E9" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5645736221551962E-2</v>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10378393199890321</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
@@ -995,15 +994,15 @@
       <c r="D10" s="3">
         <v>22514</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>1.5146131296082438E-2</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="13"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="3">
@@ -1012,778 +1011,778 @@
       <c r="D11" s="3">
         <v>611495</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>3.5043622597077655E-2</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="13">
         <f>C13+C14+304</f>
         <v>41676</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="13">
         <v>47400</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>-0.12075949367088608</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="9">
         <v>32984</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="9">
         <v>28942</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0.13965862760002765</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="9">
         <v>8388</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="9">
         <v>7370</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>0.13812754409769334</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="9">
         <v>19456</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="9">
         <v>17473</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>0.11348938362044297</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
         <f>D15/(D13+D14)</f>
         <v>0.48119079092311084</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="14">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="9">
         <f>C18+C19</f>
         <v>8348</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="9">
         <f>D18+D19</f>
         <v>7889</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>5.8182279122829257E-2</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="9">
         <v>912</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="9">
         <v>888</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>2.7027027027027029E-2</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="9">
         <v>7436</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="9">
         <v>7001</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>6.2133980859877161E-2</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="9">
         <v>39886</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="9">
         <v>39061</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>2.1120811039143903E-2</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="9">
         <v>1455</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="9">
         <v>1454</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>6.8775790921595599E-4</v>
       </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="9">
         <v>45</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="9">
         <v>45</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="9">
         <v>5152</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="9">
         <v>4887</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>5.4225496214446493E-2</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="9">
         <v>189</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="9">
         <v>189</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="9">
         <v>5</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="9">
         <v>5</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="9">
         <v>194</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="9">
         <v>47</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>3.1276595744680851</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="9">
         <f>3833+912</f>
         <v>4745</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="9">
         <f>888+3650</f>
         <v>4538</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>4.5614808285588365E-2</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="16">
         <f>C27/12141</f>
         <v>0.39082447903797052</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="16">
         <f>D27/11500</f>
         <v>0.39460869565217394</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="17">
         <f t="shared" si="0"/>
         <v>-9.5897952982237321E-3</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="9">
         <v>3201</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="9">
         <v>3006</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>6.4870259481037917E-2</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="16">
         <f>C17/19456</f>
         <v>0.42907072368421051</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="16">
         <f>D17/18628</f>
         <v>0.42350225467038866</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>1.3148617161804219E-2</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="16">
         <f>5968/C17</f>
         <v>0.71490177287973167</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="16">
         <f>5699/D17</f>
         <v>0.72239827608061857</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="17">
         <f t="shared" si="0"/>
         <v>-1.0377244034356343E-2</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="9">
         <v>6597</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="9">
         <v>6403</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>3.0298297672965796E-2</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="9">
         <v>1296</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="9">
         <v>1251</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>3.5971223021582732E-2</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="9">
         <v>142180</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="9">
         <v>124130</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="10">
         <f t="shared" si="0"/>
         <v>0.14541206799323289</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="9">
         <v>1578</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="9">
         <v>1501</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>5.1299133910726186E-2</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="9">
         <v>1162</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="16">
         <f>C36/C33</f>
         <v>0.89660493827160492</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="9">
         <v>246</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="16">
         <f>C37/C33</f>
         <v>0.18981481481481483</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="9">
         <v>5</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="16">
         <f>C38/C33</f>
         <v>3.8580246913580245E-3</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="16" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="9">
         <v>8</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="16">
         <f>C39/C33</f>
         <v>6.1728395061728392E-3</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="9">
         <v>319</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="9">
         <v>267</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="10">
         <f t="shared" ref="E40:E54" si="2">(C40-D40)/D40</f>
         <v>0.19475655430711611</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="16" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="18">
         <v>63054</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="9">
         <v>59472</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="10">
         <f t="shared" si="2"/>
         <v>6.0230024213075058E-2</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="19">
         <v>46325.35</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="9">
         <v>43645.77</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="10">
         <f t="shared" si="2"/>
         <v>6.1393807464045241E-2</v>
       </c>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="15">
-      <c r="A43" s="12"/>
-      <c r="B43" s="16" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="19">
         <v>26541.040000000001</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="9">
         <v>25019.56</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="10">
         <f t="shared" si="2"/>
         <v>6.0811620987739172E-2</v>
       </c>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="15">
-      <c r="A44" s="12"/>
-      <c r="B44" s="16" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="19">
         <v>19784.310000000001</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="9">
         <v>18626.21</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="10">
         <f t="shared" si="2"/>
         <v>6.2175826429531407E-2</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="9">
         <v>286</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="9">
         <v>275</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="10">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6">
-      <c r="A46" s="10"/>
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="9">
         <v>67</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="9">
         <v>65</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="10">
         <f t="shared" si="2"/>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.6">
-      <c r="A47" s="10"/>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="9">
         <v>51</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="9">
         <v>51</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6">
-      <c r="A48" s="10"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="9">
         <v>43</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="9">
         <v>41</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="10">
         <f t="shared" si="2"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6">
-      <c r="A49" s="10"/>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="9">
         <v>38</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="9">
         <v>35</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="10">
         <f t="shared" si="2"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.6">
-      <c r="A50" s="10"/>
-      <c r="B50" s="16" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="9">
         <v>35</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="9">
         <v>35</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F50" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6">
-      <c r="A51" s="10"/>
-      <c r="B51" s="16" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="9">
         <v>33</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="9">
         <v>33</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.6">
-      <c r="A52" s="10"/>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="9">
         <v>32</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="9">
         <v>31</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="10">
         <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.6">
-      <c r="A53" s="10"/>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="9">
         <v>29</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="9">
         <v>29</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6">
-      <c r="A54" s="11"/>
-      <c r="B54" s="16" t="s">
+      <c r="A54" s="23"/>
+      <c r="B54" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="9">
         <v>29</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="9">
         <v>26</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="10">
         <f t="shared" si="2"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="20" t="s">
         <v>78</v>
       </c>
     </row>
